--- a/statistical-analysis/Total Blocking Time t-test.xlsx
+++ b/statistical-analysis/Total Blocking Time t-test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorgray/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorgray/lighthouse-audit/statistical-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0DFBC6-F4B3-9748-ADE2-B1D6F229E4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5507B40E-984A-8C44-A1E4-EA1F851A0B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{BA93DC48-996C-124C-8125-77ADC35B3B62}"/>
   </bookViews>
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Angular (in milliseconds)</t>
   </si>
@@ -113,6 +135,18 @@
   </si>
   <si>
     <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>Bins a</t>
+  </si>
+  <si>
+    <t>Freq a</t>
+  </si>
+  <si>
+    <t>Bins r</t>
+  </si>
+  <si>
+    <t>Freq r</t>
   </si>
 </sst>
 </file>
@@ -290,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -322,6 +356,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,6 +378,2167 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total Blocking Time (Angular)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CCC-E746-A8B9-B74C2299847D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1874669552"/>
+        <c:axId val="1821641376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1874669552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Bins (Limits in milliseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1821641376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1821641376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1874669552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total Blocking Time (React)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B75-874E-BDB5-41ABAEB103B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1918406960"/>
+        <c:axId val="1918778064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1918406960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Bins (Limits in milliseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1918778064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1918778064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1918406960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1916415</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>319353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>913258</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>185505</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A26E23-FC13-7D01-26F1-B3482CE40678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1616752</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>48232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1826515</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42809</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F48F3B-6469-C8CC-A1AD-13DC0A17F808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -642,10 +2838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33064702-0E5C-7A4A-A871-8B027FA9347C}">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,7 +2857,7 @@
     <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -681,8 +2877,21 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
-    </row>
-    <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="M1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>20</v>
       </c>
@@ -696,8 +2905,23 @@
       <c r="I2" s="15"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="M2" s="23">
+        <v>0</v>
+      </c>
+      <c r="N2" s="23" cm="1">
+        <f t="array" ref="N2:N23">FREQUENCY(A2:A11,M2:M22)</f>
+        <v>4</v>
+      </c>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="23" cm="1">
+        <f t="array" ref="Q2:Q23">FREQUENCY(B2:B11,P2:P22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>0</v>
       </c>
@@ -723,8 +2947,23 @@
       <c r="K3" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="M3" s="23">
+        <f>M2 + 10</f>
+        <v>10</v>
+      </c>
+      <c r="N3" s="23">
+        <v>0</v>
+      </c>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23">
+        <f>P2 + 10</f>
+        <v>10</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>30</v>
       </c>
@@ -752,8 +2991,23 @@
       <c r="K4" s="22">
         <v>165</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="M4" s="23">
+        <f t="shared" ref="M4:M29" si="0">M3 + 10</f>
+        <v>20</v>
+      </c>
+      <c r="N4" s="23">
+        <v>2</v>
+      </c>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23">
+        <f t="shared" ref="P4:P22" si="1">P3 + 10</f>
+        <v>20</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>0</v>
       </c>
@@ -781,8 +3035,23 @@
       <c r="K5" s="18">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="M5" s="23">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="N5" s="23">
+        <v>2</v>
+      </c>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>150</v>
       </c>
@@ -810,8 +3079,23 @@
       <c r="K6" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="M6" s="23">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="N6" s="23">
+        <v>0</v>
+      </c>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>30</v>
       </c>
@@ -839,8 +3123,23 @@
         <v>1058.3333333333333</v>
       </c>
       <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="M7" s="23">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="N7" s="23">
+        <v>1</v>
+      </c>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>0</v>
       </c>
@@ -868,8 +3167,23 @@
         <v>0</v>
       </c>
       <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="M8" s="23">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="N8" s="23">
+        <v>0</v>
+      </c>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>50</v>
       </c>
@@ -897,8 +3211,23 @@
         <v>18</v>
       </c>
       <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="M9" s="23">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="N9" s="23">
+        <v>0</v>
+      </c>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>0</v>
       </c>
@@ -924,8 +3253,23 @@
         <v>-9.2791358544168538</v>
       </c>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="M10" s="23">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="N10" s="23">
+        <v>0</v>
+      </c>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>20</v>
       </c>
@@ -951,8 +3295,23 @@
         <v>1.3942383239051562E-8</v>
       </c>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="M11" s="23">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="N11" s="23">
+        <v>0</v>
+      </c>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="12" t="s">
@@ -974,8 +3333,23 @@
         <v>1.7340636066175394</v>
       </c>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="M12" s="23">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="N12" s="23">
+        <v>0</v>
+      </c>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="12" t="s">
@@ -997,8 +3371,23 @@
         <v>2.7884766478103124E-8</v>
       </c>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="M13" s="23">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="N13" s="23">
+        <v>0</v>
+      </c>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="12" t="s">
@@ -1020,8 +3409,23 @@
         <v>2.1009220402410378</v>
       </c>
       <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="M14" s="23">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="N14" s="23">
+        <v>0</v>
+      </c>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15" s="13" t="s">
@@ -1036,72 +3440,197 @@
       <c r="G15" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M15" s="23">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="23">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="M16" s="23">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="23">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="M17" s="23">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="23">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="M18" s="23">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="23">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="M19" s="23">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="23">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="M20" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="23">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="M21" s="23">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="23">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="M22" s="23">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="P22" s="23">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="M23" s="23"/>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="M24" s="23"/>
+    </row>
+    <row r="25" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="M25" s="23"/>
+    </row>
+    <row r="26" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="M26" s="23"/>
+    </row>
+    <row r="27" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="M27" s="23"/>
+    </row>
+    <row r="28" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="M28" s="23"/>
+    </row>
+    <row r="29" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="M29" s="23"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
@@ -1311,5 +3840,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>